--- a/data/seflSintSraMetadata.xlsx
+++ b/data/seflSintSraMetadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryaneckert/GitHub/Stephanocoenia_SEFL_PopGen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryaneckert/GitHub/Stephanocoenia_SEFL_PopGen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B50DA58F-62B0-FE44-951D-4622A1D726B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAED7AC-6CA7-5C4B-AB26-4FD199A99801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="543">
   <si>
     <t>filename</t>
   </si>
@@ -2059,387 +2059,6 @@
   </si>
   <si>
     <t>SSF066.3</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6001</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6002</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6003</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6004</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6005</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6006</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6007</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6008</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6009</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6010</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6011</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6012</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6013</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6014</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6015</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6016</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6017</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6018</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6019</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6020</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6021</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6022</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6023</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6024</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6025</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6026</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6027</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6028</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6029</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6030</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6031</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6032</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6033</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6034</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6035</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6036</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6037</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6038</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6039</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6040</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6041</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6042</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6043</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6044</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6045</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6046</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6047</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6048</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6049</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6050</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6051</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6052</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6053</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6054</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6055</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6056</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6057</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6058</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6059</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6060</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6061</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6062</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6063</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6064</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6065</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6066</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6067</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6068</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6069</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6070</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6071</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6072</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6073</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6074</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6075</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6076</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6077</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6078</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6079</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6080</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6081</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6082</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6083</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6084</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6085</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6086</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6087</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6088</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6089</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6090</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6091</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6092</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6093</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6094</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6095</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6096</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6097</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6098</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6099</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6100</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6101</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6102</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6103</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6104</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6105</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6106</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6107</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6108</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6109</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6110</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6111</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6112</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6113</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6114</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6115</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6116</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6117</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6118</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6119</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6120</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6121</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6122</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6123</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6124</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6125</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6126</t>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6127</t>
   </si>
 </sst>
 </file>
@@ -2935,13 +2554,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3712,9 +3331,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2:K129"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2:I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3853,7 +3472,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>543</v>
+        <v>247</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>286</v>
@@ -3891,7 +3510,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>286</v>
@@ -3929,7 +3548,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>545</v>
+        <v>247</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>286</v>
@@ -3967,7 +3586,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>546</v>
+        <v>247</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>286</v>
@@ -4005,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>547</v>
+        <v>247</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>286</v>
@@ -4043,7 +3662,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>548</v>
+        <v>247</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>286</v>
@@ -4081,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>549</v>
+        <v>247</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>286</v>
@@ -4119,7 +3738,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>550</v>
+        <v>247</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>286</v>
@@ -4157,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>551</v>
+        <v>247</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>286</v>
@@ -4195,7 +3814,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>552</v>
+        <v>247</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>286</v>
@@ -4233,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>553</v>
+        <v>247</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>286</v>
@@ -4271,7 +3890,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>554</v>
+        <v>247</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>286</v>
@@ -4309,7 +3928,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>555</v>
+        <v>247</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>286</v>
@@ -4347,7 +3966,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>556</v>
+        <v>247</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>286</v>
@@ -4385,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>557</v>
+        <v>247</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>286</v>
@@ -4423,7 +4042,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>558</v>
+        <v>247</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>286</v>
@@ -4461,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>559</v>
+        <v>247</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>286</v>
@@ -4499,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>560</v>
+        <v>247</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>286</v>
@@ -4537,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>561</v>
+        <v>247</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>286</v>
@@ -4575,7 +4194,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>562</v>
+        <v>247</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>286</v>
@@ -4613,7 +4232,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>563</v>
+        <v>247</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>286</v>
@@ -4651,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>564</v>
+        <v>247</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>286</v>
@@ -4689,7 +4308,7 @@
         <v>6</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>565</v>
+        <v>247</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>286</v>
@@ -4727,7 +4346,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>566</v>
+        <v>247</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>286</v>
@@ -4765,7 +4384,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>567</v>
+        <v>247</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>286</v>
@@ -4803,7 +4422,7 @@
         <v>6</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>568</v>
+        <v>247</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>286</v>
@@ -4841,7 +4460,7 @@
         <v>6</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>569</v>
+        <v>247</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>286</v>
@@ -4879,7 +4498,7 @@
         <v>6</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>570</v>
+        <v>247</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>286</v>
@@ -4917,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>571</v>
+        <v>247</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>286</v>
@@ -4955,7 +4574,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>572</v>
+        <v>247</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>286</v>
@@ -4993,7 +4612,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>573</v>
+        <v>247</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>286</v>
@@ -5031,7 +4650,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>574</v>
+        <v>247</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>286</v>
@@ -5069,7 +4688,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>575</v>
+        <v>247</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>286</v>
@@ -5107,7 +4726,7 @@
         <v>6</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>576</v>
+        <v>247</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>286</v>
@@ -5145,7 +4764,7 @@
         <v>6</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>577</v>
+        <v>247</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>286</v>
@@ -5183,7 +4802,7 @@
         <v>6</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>578</v>
+        <v>247</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>286</v>
@@ -5221,7 +4840,7 @@
         <v>6</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>579</v>
+        <v>247</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>286</v>
@@ -5259,7 +4878,7 @@
         <v>6</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>580</v>
+        <v>247</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>286</v>
@@ -5297,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>581</v>
+        <v>247</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>286</v>
@@ -5335,7 +4954,7 @@
         <v>6</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>582</v>
+        <v>247</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>286</v>
@@ -5373,7 +4992,7 @@
         <v>6</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>583</v>
+        <v>247</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>286</v>
@@ -5411,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>584</v>
+        <v>247</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>286</v>
@@ -5449,7 +5068,7 @@
         <v>6</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>585</v>
+        <v>247</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>286</v>
@@ -5487,7 +5106,7 @@
         <v>6</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>586</v>
+        <v>247</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>286</v>
@@ -5525,7 +5144,7 @@
         <v>6</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>587</v>
+        <v>247</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>286</v>
@@ -5563,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>588</v>
+        <v>247</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>286</v>
@@ -5601,7 +5220,7 @@
         <v>6</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>589</v>
+        <v>247</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>286</v>
@@ -5639,7 +5258,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>590</v>
+        <v>247</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>286</v>
@@ -5677,7 +5296,7 @@
         <v>6</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>591</v>
+        <v>247</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>286</v>
@@ -5715,7 +5334,7 @@
         <v>6</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>592</v>
+        <v>247</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>286</v>
@@ -5753,7 +5372,7 @@
         <v>6</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>593</v>
+        <v>247</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>286</v>
@@ -5791,7 +5410,7 @@
         <v>6</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>594</v>
+        <v>247</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>286</v>
@@ -5829,7 +5448,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>595</v>
+        <v>247</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>286</v>
@@ -5867,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>596</v>
+        <v>247</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>286</v>
@@ -5905,7 +5524,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>597</v>
+        <v>247</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>286</v>
@@ -5943,7 +5562,7 @@
         <v>6</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>598</v>
+        <v>247</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>286</v>
@@ -5981,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>599</v>
+        <v>247</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>286</v>
@@ -6019,7 +5638,7 @@
         <v>6</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>600</v>
+        <v>247</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>286</v>
@@ -6057,7 +5676,7 @@
         <v>6</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>601</v>
+        <v>247</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>286</v>
@@ -6095,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>602</v>
+        <v>247</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>286</v>
@@ -6133,7 +5752,7 @@
         <v>6</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>603</v>
+        <v>247</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>286</v>
@@ -6171,7 +5790,7 @@
         <v>6</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>604</v>
+        <v>247</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>286</v>
@@ -6209,7 +5828,7 @@
         <v>6</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>605</v>
+        <v>247</v>
       </c>
       <c r="J65" s="11" t="s">
         <v>286</v>
@@ -6247,7 +5866,7 @@
         <v>6</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>606</v>
+        <v>247</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>286</v>
@@ -6285,7 +5904,7 @@
         <v>6</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>607</v>
+        <v>247</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>286</v>
@@ -6323,7 +5942,7 @@
         <v>6</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>608</v>
+        <v>247</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>286</v>
@@ -6361,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>609</v>
+        <v>247</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>286</v>
@@ -6399,7 +6018,7 @@
         <v>6</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>610</v>
+        <v>247</v>
       </c>
       <c r="J70" s="11" t="s">
         <v>286</v>
@@ -6437,7 +6056,7 @@
         <v>6</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>611</v>
+        <v>247</v>
       </c>
       <c r="J71" s="11" t="s">
         <v>286</v>
@@ -6475,7 +6094,7 @@
         <v>6</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>612</v>
+        <v>247</v>
       </c>
       <c r="J72" s="11" t="s">
         <v>286</v>
@@ -6513,7 +6132,7 @@
         <v>6</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>613</v>
+        <v>247</v>
       </c>
       <c r="J73" s="11" t="s">
         <v>286</v>
@@ -6551,7 +6170,7 @@
         <v>6</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>614</v>
+        <v>247</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>286</v>
@@ -6589,7 +6208,7 @@
         <v>6</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>615</v>
+        <v>247</v>
       </c>
       <c r="J75" s="11" t="s">
         <v>286</v>
@@ -6627,7 +6246,7 @@
         <v>6</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>616</v>
+        <v>247</v>
       </c>
       <c r="J76" s="11" t="s">
         <v>286</v>
@@ -6665,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>617</v>
+        <v>247</v>
       </c>
       <c r="J77" s="11" t="s">
         <v>286</v>
@@ -6703,7 +6322,7 @@
         <v>6</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>618</v>
+        <v>247</v>
       </c>
       <c r="J78" s="11" t="s">
         <v>286</v>
@@ -6741,7 +6360,7 @@
         <v>6</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>619</v>
+        <v>247</v>
       </c>
       <c r="J79" s="11" t="s">
         <v>286</v>
@@ -6779,7 +6398,7 @@
         <v>6</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>620</v>
+        <v>247</v>
       </c>
       <c r="J80" s="11" t="s">
         <v>286</v>
@@ -6817,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>621</v>
+        <v>247</v>
       </c>
       <c r="J81" s="11" t="s">
         <v>286</v>
@@ -6855,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>622</v>
+        <v>247</v>
       </c>
       <c r="J82" s="11" t="s">
         <v>286</v>
@@ -6893,7 +6512,7 @@
         <v>6</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>623</v>
+        <v>247</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>286</v>
@@ -6931,7 +6550,7 @@
         <v>6</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>624</v>
+        <v>247</v>
       </c>
       <c r="J84" s="11" t="s">
         <v>286</v>
@@ -6969,7 +6588,7 @@
         <v>6</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>625</v>
+        <v>247</v>
       </c>
       <c r="J85" s="11" t="s">
         <v>286</v>
@@ -7007,7 +6626,7 @@
         <v>6</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>626</v>
+        <v>247</v>
       </c>
       <c r="J86" s="11" t="s">
         <v>286</v>
@@ -7045,7 +6664,7 @@
         <v>6</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>627</v>
+        <v>247</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>286</v>
@@ -7083,7 +6702,7 @@
         <v>6</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>628</v>
+        <v>247</v>
       </c>
       <c r="J88" s="11" t="s">
         <v>286</v>
@@ -7121,7 +6740,7 @@
         <v>6</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>629</v>
+        <v>247</v>
       </c>
       <c r="J89" s="11" t="s">
         <v>286</v>
@@ -7159,7 +6778,7 @@
         <v>6</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>630</v>
+        <v>247</v>
       </c>
       <c r="J90" s="11" t="s">
         <v>286</v>
@@ -7197,7 +6816,7 @@
         <v>6</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>631</v>
+        <v>247</v>
       </c>
       <c r="J91" s="11" t="s">
         <v>286</v>
@@ -7235,7 +6854,7 @@
         <v>6</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>632</v>
+        <v>247</v>
       </c>
       <c r="J92" s="11" t="s">
         <v>286</v>
@@ -7273,7 +6892,7 @@
         <v>6</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>633</v>
+        <v>247</v>
       </c>
       <c r="J93" s="11" t="s">
         <v>286</v>
@@ -7311,7 +6930,7 @@
         <v>6</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>634</v>
+        <v>247</v>
       </c>
       <c r="J94" s="11" t="s">
         <v>286</v>
@@ -7349,7 +6968,7 @@
         <v>6</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>635</v>
+        <v>247</v>
       </c>
       <c r="J95" s="11" t="s">
         <v>286</v>
@@ -7387,7 +7006,7 @@
         <v>6</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>636</v>
+        <v>247</v>
       </c>
       <c r="J96" s="11" t="s">
         <v>286</v>
@@ -7425,7 +7044,7 @@
         <v>6</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>637</v>
+        <v>247</v>
       </c>
       <c r="J97" s="11" t="s">
         <v>286</v>
@@ -7463,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>638</v>
+        <v>247</v>
       </c>
       <c r="J98" s="11" t="s">
         <v>286</v>
@@ -7501,7 +7120,7 @@
         <v>6</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>639</v>
+        <v>247</v>
       </c>
       <c r="J99" s="11" t="s">
         <v>286</v>
@@ -7539,7 +7158,7 @@
         <v>6</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>640</v>
+        <v>247</v>
       </c>
       <c r="J100" s="11" t="s">
         <v>286</v>
@@ -7577,7 +7196,7 @@
         <v>6</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>641</v>
+        <v>247</v>
       </c>
       <c r="J101" s="11" t="s">
         <v>286</v>
@@ -7615,7 +7234,7 @@
         <v>6</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>642</v>
+        <v>247</v>
       </c>
       <c r="J102" s="11" t="s">
         <v>286</v>
@@ -7653,7 +7272,7 @@
         <v>6</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>643</v>
+        <v>247</v>
       </c>
       <c r="J103" s="11" t="s">
         <v>286</v>
@@ -7691,7 +7310,7 @@
         <v>6</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>644</v>
+        <v>247</v>
       </c>
       <c r="J104" s="11" t="s">
         <v>286</v>
@@ -7729,7 +7348,7 @@
         <v>6</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>645</v>
+        <v>247</v>
       </c>
       <c r="J105" s="11" t="s">
         <v>286</v>
@@ -7767,7 +7386,7 @@
         <v>6</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>646</v>
+        <v>247</v>
       </c>
       <c r="J106" s="11" t="s">
         <v>286</v>
@@ -7805,7 +7424,7 @@
         <v>6</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>647</v>
+        <v>247</v>
       </c>
       <c r="J107" s="11" t="s">
         <v>286</v>
@@ -7843,7 +7462,7 @@
         <v>6</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>648</v>
+        <v>247</v>
       </c>
       <c r="J108" s="11" t="s">
         <v>286</v>
@@ -7881,7 +7500,7 @@
         <v>6</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>649</v>
+        <v>247</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>286</v>
@@ -7919,7 +7538,7 @@
         <v>6</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>650</v>
+        <v>247</v>
       </c>
       <c r="J110" s="11" t="s">
         <v>286</v>
@@ -7957,7 +7576,7 @@
         <v>6</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>651</v>
+        <v>247</v>
       </c>
       <c r="J111" s="11" t="s">
         <v>286</v>
@@ -7995,7 +7614,7 @@
         <v>6</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>652</v>
+        <v>247</v>
       </c>
       <c r="J112" s="11" t="s">
         <v>286</v>
@@ -8033,7 +7652,7 @@
         <v>6</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>653</v>
+        <v>247</v>
       </c>
       <c r="J113" s="11" t="s">
         <v>286</v>
@@ -8071,7 +7690,7 @@
         <v>6</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>654</v>
+        <v>247</v>
       </c>
       <c r="J114" s="11" t="s">
         <v>286</v>
@@ -8109,7 +7728,7 @@
         <v>6</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>655</v>
+        <v>247</v>
       </c>
       <c r="J115" s="11" t="s">
         <v>286</v>
@@ -8147,7 +7766,7 @@
         <v>6</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>656</v>
+        <v>247</v>
       </c>
       <c r="J116" s="11" t="s">
         <v>286</v>
@@ -8185,7 +7804,7 @@
         <v>6</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>657</v>
+        <v>247</v>
       </c>
       <c r="J117" s="11" t="s">
         <v>286</v>
@@ -8223,7 +7842,7 @@
         <v>6</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>658</v>
+        <v>247</v>
       </c>
       <c r="J118" s="11" t="s">
         <v>286</v>
@@ -8261,7 +7880,7 @@
         <v>6</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>659</v>
+        <v>247</v>
       </c>
       <c r="J119" s="11" t="s">
         <v>286</v>
@@ -8299,7 +7918,7 @@
         <v>6</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>660</v>
+        <v>247</v>
       </c>
       <c r="J120" s="11" t="s">
         <v>286</v>
@@ -8337,7 +7956,7 @@
         <v>6</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>661</v>
+        <v>247</v>
       </c>
       <c r="J121" s="11" t="s">
         <v>286</v>
@@ -8375,7 +7994,7 @@
         <v>6</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>662</v>
+        <v>247</v>
       </c>
       <c r="J122" s="11" t="s">
         <v>286</v>
@@ -8413,7 +8032,7 @@
         <v>6</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>663</v>
+        <v>247</v>
       </c>
       <c r="J123" s="11" t="s">
         <v>286</v>
@@ -8451,7 +8070,7 @@
         <v>6</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>664</v>
+        <v>247</v>
       </c>
       <c r="J124" s="11" t="s">
         <v>286</v>
@@ -8489,7 +8108,7 @@
         <v>6</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>665</v>
+        <v>247</v>
       </c>
       <c r="J125" s="11" t="s">
         <v>286</v>
@@ -8527,7 +8146,7 @@
         <v>6</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>666</v>
+        <v>247</v>
       </c>
       <c r="J126" s="11" t="s">
         <v>286</v>
@@ -8565,7 +8184,7 @@
         <v>6</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>667</v>
+        <v>247</v>
       </c>
       <c r="J127" s="11" t="s">
         <v>286</v>
@@ -8603,7 +8222,7 @@
         <v>6</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>668</v>
+        <v>247</v>
       </c>
       <c r="J128" s="11" t="s">
         <v>286</v>
@@ -8641,7 +8260,7 @@
         <v>6</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>669</v>
+        <v>247</v>
       </c>
       <c r="J129" s="11" t="s">
         <v>286</v>
@@ -11546,8 +11165,8 @@
       <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -11874,8 +11493,8 @@
       <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
@@ -11958,7 +11577,7 @@
       <c r="A50" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="43"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="42"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12645,25 +12264,38 @@
     <sortCondition ref="J87"/>
   </sortState>
   <mergeCells count="63">
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -12676,38 +12308,25 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
